--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H2">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>20969.47282209779</v>
+        <v>7199.796357654319</v>
       </c>
       <c r="R2">
-        <v>188725.2553988801</v>
+        <v>64798.16721888887</v>
       </c>
       <c r="S2">
-        <v>0.1125497263794132</v>
+        <v>0.05210887478273039</v>
       </c>
       <c r="T2">
-        <v>0.1125497263794131</v>
+        <v>0.05210887478273039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H3">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>18198.8789357863</v>
+        <v>9487.09437001651</v>
       </c>
       <c r="R3">
-        <v>163789.9104220766</v>
+        <v>85383.84933014859</v>
       </c>
       <c r="S3">
-        <v>0.09767908149204027</v>
+        <v>0.06866330490772367</v>
       </c>
       <c r="T3">
-        <v>0.09767908149204024</v>
+        <v>0.06866330490772365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H4">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>25445.2391687356</v>
+        <v>13264.62943751679</v>
       </c>
       <c r="R4">
-        <v>229007.1525186204</v>
+        <v>119381.6649376511</v>
       </c>
       <c r="S4">
-        <v>0.1365725657672217</v>
+        <v>0.09600339788278055</v>
       </c>
       <c r="T4">
-        <v>0.1365725657672217</v>
+        <v>0.09600339788278053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>28068.14437813592</v>
+        <v>18486.63291571841</v>
       </c>
       <c r="R5">
-        <v>252613.2994032233</v>
+        <v>166379.6962414657</v>
       </c>
       <c r="S5">
-        <v>0.15065051928287</v>
+        <v>0.1337979009274813</v>
       </c>
       <c r="T5">
-        <v>0.15065051928287</v>
+        <v>0.1337979009274813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>24359.63773736706</v>
@@ -818,10 +818,10 @@
         <v>219236.7396363036</v>
       </c>
       <c r="S6">
-        <v>0.1307458029728386</v>
+        <v>0.1763040577195835</v>
       </c>
       <c r="T6">
-        <v>0.1307458029728385</v>
+        <v>0.1763040577195835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>34059.06542255273</v>
@@ -880,10 +880,10 @@
         <v>306531.5888029746</v>
       </c>
       <c r="S7">
-        <v>0.1828056683431374</v>
+        <v>0.2465041352779098</v>
       </c>
       <c r="T7">
-        <v>0.1828056683431374</v>
+        <v>0.2465041352779098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>292.907699</v>
       </c>
       <c r="I8">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J8">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>11427.75120959685</v>
+        <v>7526.704965524492</v>
       </c>
       <c r="R8">
-        <v>102849.7608863716</v>
+        <v>67740.34468972043</v>
       </c>
       <c r="S8">
-        <v>0.06133631888049831</v>
+        <v>0.05447489166247079</v>
       </c>
       <c r="T8">
-        <v>0.06133631888049831</v>
+        <v>0.05447489166247078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>292.907699</v>
       </c>
       <c r="I9">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J9">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>9917.858333213588</v>
@@ -1004,10 +1004,10 @@
         <v>89260.72499892229</v>
       </c>
       <c r="S9">
-        <v>0.05323225105099719</v>
+        <v>0.07178097995075257</v>
       </c>
       <c r="T9">
-        <v>0.05323225105099718</v>
+        <v>0.07178097995075254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>292.907699</v>
       </c>
       <c r="I10">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J10">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>13866.91335332814</v>
@@ -1066,10 +1066,10 @@
         <v>124802.2201799532</v>
       </c>
       <c r="S10">
-        <v>0.07442806583098345</v>
+        <v>0.1003624568885676</v>
       </c>
       <c r="T10">
-        <v>0.07442806583098345</v>
+        <v>0.1003624568885676</v>
       </c>
     </row>
   </sheetData>
